--- a/cleaned_sevadars.xlsx
+++ b/cleaned_sevadars.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>26-08-2025.</t>
+          <t>22-07-2025.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02-08-2025.</t>
+          <t>02-07-2025.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20-08-2025.</t>
+          <t>20-07-2025.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -569,12 +569,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12-08-2025.</t>
+          <t>12-07-2025.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22-08-2025.</t>
+          <t>22-07-2025.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>05-08-2025.</t>
+          <t>05-07-2025.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>06-08-2025.</t>
+          <t>06-07-2025.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18-08-2025.</t>
+          <t>18-07-2025.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23-08-2025.</t>
+          <t>23-07-2025.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09-08-2025.</t>
+          <t>09-07-2025.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>09-08-2025.</t>
+          <t>09-07-2025.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>07-08-2025.</t>
+          <t>07-07-2025.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>09-08-2025.</t>
+          <t>12-07-2025.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11-08-2025.</t>
+          <t>11-07-2025.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10-08-2025.</t>
+          <t>10-07-2025.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -953,12 +953,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12-08-2025.</t>
+          <t>12-07-2025.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -984,12 +984,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12-08-2025.</t>
+          <t>12-07-2025.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12-08-2025.</t>
+          <t>12-07-2025.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13-08-2025.</t>
+          <t>13-07-2025.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>09-08-2025.</t>
+          <t>09-07-2025.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>101</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13-08-2025.</t>
+          <t>13-07-2025.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>28-08-2025.</t>
+          <t>28-07-2025.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1176,12 +1176,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>29-08-2025.</t>
+          <t>29-07-2025.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15-08-2025.</t>
+          <t>15-07-2025.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>18-08-2025.</t>
+          <t>18-07-2025.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16-08-2025.</t>
+          <t>16-07-2025.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>17-08-2025.</t>
+          <t>17-07-2025.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1335,12 +1335,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>04-08-2025.</t>
+          <t>04-07-2025.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1367,12 +1367,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>19-08-2025.</t>
+          <t>19-07-2025.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1399,12 +1399,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>24-08-2025.</t>
+          <t>24-07-2025.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>22-08-2025.</t>
+          <t>22-07-2025.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1463,12 +1463,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22-08-2025.</t>
+          <t>22-07-2025.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>23-08-2025.</t>
+          <t>23-07-2025.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1527,12 +1527,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>23-08-2025.</t>
+          <t>23-07-2025.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1559,12 +1559,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>21-08-2025.</t>
+          <t>25-07-2025.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>30-08-2025.</t>
+          <t>26-07-2025.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14-08-2025.</t>
+          <t>14-07-2025.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11-08-2025.</t>
+          <t>15-07-2025.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1687,12 +1687,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>03-08-2025.</t>
+          <t>03-07-2025.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1719,12 +1719,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08-08-2025.</t>
+          <t>08-07-2025.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>31-08-2025.</t>
+          <t>31-07-2025.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>27-08-2025.</t>
+          <t>30-07-2025.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>25-08-2025.</t>
+          <t>27-07-2025.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>05-08-2025.</t>
+          <t>05-07-2025.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22-08-2025.</t>
+          <t>22-07-2025.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>21-08-2025.</t>
+          <t>25-07-2025.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">

--- a/cleaned_sevadars.xlsx
+++ b/cleaned_sevadars.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>22-07-2025.</t>
+          <t>26-08-2025.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -505,12 +505,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>02-07-2025.</t>
+          <t>02-08-2025.</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>20-07-2025.</t>
+          <t>20-08-2025.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -569,12 +569,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>12-07-2025.</t>
+          <t>12-08-2025.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>7</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>22-07-2025.</t>
+          <t>22-08-2025.</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -633,12 +633,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>05-07-2025.</t>
+          <t>05-08-2025.</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -665,12 +665,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>06-07-2025.</t>
+          <t>06-08-2025.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -697,12 +697,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>18-07-2025.</t>
+          <t>18-08-2025.</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -729,12 +729,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>23-07-2025.</t>
+          <t>23-08-2025.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -761,12 +761,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09-07-2025.</t>
+          <t>09-08-2025.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>09-07-2025.</t>
+          <t>09-08-2025.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -825,12 +825,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>07-07-2025.</t>
+          <t>07-08-2025.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -857,12 +857,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>12-07-2025.</t>
+          <t>09-08-2025.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -889,12 +889,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>11-07-2025.</t>
+          <t>11-08-2025.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>10-07-2025.</t>
+          <t>10-08-2025.</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -953,12 +953,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>12-07-2025.</t>
+          <t>12-08-2025.</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -984,12 +984,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>12-07-2025.</t>
+          <t>12-08-2025.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1016,12 +1016,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>12-07-2025.</t>
+          <t>12-08-2025.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1048,12 +1048,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13-07-2025.</t>
+          <t>13-08-2025.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1080,12 +1080,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>09-07-2025.</t>
+          <t>09-08-2025.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1112,12 +1112,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>13-07-2025.</t>
+          <t>13-08-2025.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>28-07-2025.</t>
+          <t>28-08-2025.</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1176,12 +1176,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>29-07-2025.</t>
+          <t>29-08-2025.</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1208,12 +1208,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>15-07-2025.</t>
+          <t>15-08-2025.</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>18-07-2025.</t>
+          <t>18-08-2025.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1272,12 +1272,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16-07-2025.</t>
+          <t>16-08-2025.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1304,12 +1304,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>17-07-2025.</t>
+          <t>17-08-2025.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1335,12 +1335,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>04-07-2025.</t>
+          <t>04-08-2025.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1367,12 +1367,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>19-07-2025.</t>
+          <t>19-08-2025.</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1399,12 +1399,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>24-07-2025.</t>
+          <t>24-08-2025.</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1431,12 +1431,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>22-07-2025.</t>
+          <t>22-08-2025.</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1463,12 +1463,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>22-07-2025.</t>
+          <t>22-08-2025.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1495,12 +1495,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>23-07-2025.</t>
+          <t>23-08-2025.</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1527,12 +1527,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>23-07-2025.</t>
+          <t>23-08-2025.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1559,12 +1559,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>25-07-2025.</t>
+          <t>21-08-2025.</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1591,12 +1591,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>26-07-2025.</t>
+          <t>30-08-2025.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1623,12 +1623,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>14-07-2025.</t>
+          <t>14-08-2025.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>15-07-2025.</t>
+          <t>11-08-2025.</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1687,12 +1687,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>03-07-2025.</t>
+          <t>03-08-2025.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1719,12 +1719,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>08-07-2025.</t>
+          <t>08-08-2025.</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1751,12 +1751,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>31-07-2025.</t>
+          <t>31-08-2025.</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1783,12 +1783,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>30-07-2025.</t>
+          <t>27-08-2025.</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1815,12 +1815,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>27-07-2025.</t>
+          <t>25-08-2025.</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1847,12 +1847,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>05-07-2025.</t>
+          <t>05-08-2025.</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1879,12 +1879,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>22-07-2025.</t>
+          <t>22-08-2025.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>25-07-2025.</t>
+          <t>21-08-2025.</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
